--- a/src/test/java/com/example/easyexcel/xlsx/demoData.xlsx
+++ b/src/test/java/com/example/easyexcel/xlsx/demoData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="写入方法一" r:id="rId3" sheetId="1"/>
+    <sheet name="写入方法二" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -124,7 +124,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -139,7 +139,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -154,7 +154,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -169,7 +169,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -184,7 +184,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -199,7 +199,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -214,7 +214,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -229,7 +229,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -244,7 +244,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
@@ -259,7 +259,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-01-13 17:14:14</t>
+          <t>2021-01-14 13:08:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2021-01-14 13:08:52</t>
         </is>
       </c>
     </row>
